--- a/backend/src/assets/template.xlsx
+++ b/backend/src/assets/template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -39,10 +39,19 @@
     <t xml:space="preserve">PROCESS ID:</t>
   </si>
   <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATE:</t>
   </si>
   <si>
+    <t xml:space="preserve">XX/XX/XX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Make:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE</t>
   </si>
   <si>
     <t xml:space="preserve">Flow:</t>
@@ -54,16 +63,19 @@
     <t xml:space="preserve">lb/hr @ 43.5 psi</t>
   </si>
   <si>
-    <t xml:space="preserve">Ohm:</t>
+    <t xml:space="preserve">Part Number:</t>
   </si>
   <si>
-    <t xml:space="preserve">Part #</t>
+    <t xml:space="preserve">PART</t>
   </si>
   <si>
     <t xml:space="preserve">lb/hr @ 58.0 psi</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t xml:space="preserve">Ohm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OHM</t>
   </si>
   <si>
     <t xml:space="preserve">100% Duty / Static Flow</t>
@@ -113,6 +125,9 @@
   <si>
     <t xml:space="preserve">ABOVE AVG</t>
   </si>
+  <si>
+    <t xml:space="preserve"> FLOW DIFF</t>
+  </si>
 </sst>
 </file>
 
@@ -160,9 +175,25 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI Black"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Black"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -210,21 +241,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
@@ -240,7 +256,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <charset val="1"/>
@@ -288,7 +304,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,12 +315,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.7999"/>
         <bgColor rgb="FFDCE6F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -322,19 +332,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.7999"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.7999"/>
-        <bgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -357,8 +367,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor rgb="FFE6E0EC"/>
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -388,21 +398,7 @@
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -416,7 +412,7 @@
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -427,15 +423,22 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="medium"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
+      <right style="medium"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -452,6 +455,13 @@
       <right style="thin"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -488,11 +498,11 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,27 +523,51 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,48 +575,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -593,135 +599,159 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,12 +789,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFDBEEF4"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFE6E0EC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -775,12 +805,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFDCE6F2"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFDEADA"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFE6E0EC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -813,9 +843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
+      <xdr:colOff>617760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>651240</xdr:rowOff>
+      <xdr:rowOff>649440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,7 +859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400" y="0"/>
-          <a:ext cx="3372480" cy="651240"/>
+          <a:ext cx="3370680" cy="649440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:R637"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,12 +1089,16 @@
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
       <c r="O1" s="9"/>
@@ -1072,165 +1106,176 @@
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="12"/>
       <c r="D2" s="11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="13" t="e">
         <f aca="false">AVERAGE(C7:C18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" s="15" t="e">
         <f aca="false">E2/10.45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="J2" s="0"/>
       <c r="K2" s="3"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="13" t="e">
         <f aca="false">E2+(E2*0.18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="15" t="e">
         <f aca="false">G$2+G$2*0.18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="K3" s="0"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>15</v>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
+        <v>17</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>16</v>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>15</v>
+      <c r="B6" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>16</v>
+      <c r="C6" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="1" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="19"/>
       <c r="O9" s="34" t="s">
         <v>0</v>
       </c>
@@ -1239,88 +1284,94 @@
       <c r="R9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35"/>
@@ -1330,358 +1381,370 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="36"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="36"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="36"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>18</v>
+      <c r="C20" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>18</v>
+      <c r="E20" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="G20" s="42" t="s">
-        <v>18</v>
+      <c r="G20" s="43" t="s">
+        <v>22</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="36"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
-        <v>20</v>
+      <c r="A21" s="44" t="s">
+        <v>24</v>
       </c>
-      <c r="B21" s="44" t="n">
+      <c r="B21" s="45" t="n">
         <f aca="false">MIN(B7:B18)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="44" t="n">
+      <c r="C21" s="46" t="n">
         <f aca="false">MIN(C7:C18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44" t="n">
+      <c r="D21" s="46" t="n">
         <f aca="false">MIN(D7:D18)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E21" s="46" t="n">
         <f aca="false">MIN(E7:E18)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="44" t="n">
+      <c r="F21" s="46" t="n">
         <f aca="false">MIN(F7:F18)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="45" t="n">
+      <c r="G21" s="46" t="n">
         <f aca="false">MIN(G7:G18)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="46"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
-        <v>21</v>
+      <c r="A22" s="48" t="s">
+        <v>25</v>
       </c>
-      <c r="B22" s="47" t="n">
+      <c r="B22" s="49" t="n">
         <f aca="false">MAX(B7:B18)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="47" t="n">
+      <c r="C22" s="50" t="n">
         <f aca="false">MAX(C7:C18)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="47" t="n">
+      <c r="D22" s="50" t="n">
         <f aca="false">MAX(D7:D18)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="47" t="n">
+      <c r="E22" s="50" t="n">
         <f aca="false">MAX(E7:E18)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="47" t="n">
+      <c r="F22" s="50" t="n">
         <f aca="false">MAX(F7:F18)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="48" t="n">
+      <c r="G22" s="50" t="n">
         <f aca="false">MAX(G7:G18)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="49"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43" t="s">
-        <v>22</v>
+      <c r="A23" s="48" t="s">
+        <v>26</v>
       </c>
-      <c r="B23" s="50" t="n">
+      <c r="B23" s="52" t="n">
         <f aca="false">+B22-B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="50" t="n">
+      <c r="C23" s="53" t="n">
         <f aca="false">+C22-C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="50" t="n">
+      <c r="D23" s="53" t="n">
         <f aca="false">+D22-D21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="50" t="n">
+      <c r="E23" s="53" t="n">
         <f aca="false">+E22-E21</f>
         <v>0</v>
       </c>
-      <c r="F23" s="50" t="n">
+      <c r="F23" s="53" t="n">
         <f aca="false">+F22-F21</f>
         <v>0</v>
       </c>
-      <c r="G23" s="51" t="n">
+      <c r="G23" s="53" t="n">
         <f aca="false">+G22-G21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="49"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="s">
-        <v>23</v>
+      <c r="A24" s="48" t="s">
+        <v>27</v>
       </c>
-      <c r="B24" s="52" t="e">
+      <c r="B24" s="54" t="e">
         <f aca="false">(1-(B21/B22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C24" s="52" t="e">
+      <c r="C24" s="55" t="e">
         <f aca="false">(1-(C21/C22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="52" t="e">
+      <c r="D24" s="55" t="e">
         <f aca="false">(1-(D21/D22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="52" t="e">
+      <c r="E24" s="55" t="e">
         <f aca="false">(1-(E21/E22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="52" t="e">
+      <c r="F24" s="55" t="e">
         <f aca="false">(1-(F21/F22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="53" t="e">
+      <c r="G24" s="55" t="e">
         <f aca="false">(1-(G21/G22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="54"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43" t="s">
-        <v>24</v>
+      <c r="A25" s="48" t="s">
+        <v>28</v>
       </c>
-      <c r="B25" s="55" t="e">
+      <c r="B25" s="57" t="e">
         <f aca="false">AVERAGE(B7:B18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="55" t="e">
+      <c r="C25" s="58" t="e">
         <f aca="false">AVERAGE(C7:C18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="55" t="e">
+      <c r="D25" s="58" t="e">
         <f aca="false">AVERAGE(D7:D18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="55" t="e">
+      <c r="E25" s="58" t="e">
         <f aca="false">AVERAGE(E7:F18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="55" t="e">
+      <c r="F25" s="58" t="e">
         <f aca="false">AVERAGE(F7:F18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="56" t="e">
+      <c r="G25" s="58" t="e">
         <f aca="false">AVERAGE(G7:G18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="49"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43" t="s">
-        <v>25</v>
+      <c r="A26" s="48" t="s">
+        <v>29</v>
       </c>
-      <c r="B26" s="47" t="e">
+      <c r="B26" s="49" t="e">
         <f aca="false">B25-B21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C26" s="47" t="e">
+      <c r="C26" s="50" t="e">
         <f aca="false">C25-C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="47" t="e">
+      <c r="D26" s="50" t="e">
         <f aca="false">D25-D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="47" t="e">
+      <c r="E26" s="50" t="e">
         <f aca="false">E25-E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="47" t="e">
+      <c r="F26" s="50" t="e">
         <f aca="false">F25-F21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="48" t="e">
+      <c r="G26" s="50" t="e">
         <f aca="false">G25-G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="49"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43" t="s">
-        <v>26</v>
+      <c r="A27" s="48" t="s">
+        <v>30</v>
       </c>
-      <c r="B27" s="47" t="e">
+      <c r="B27" s="49" t="e">
         <f aca="false">+B22-B25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="47" t="e">
+      <c r="C27" s="50" t="e">
         <f aca="false">+C22-C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="47" t="e">
+      <c r="D27" s="50" t="e">
         <f aca="false">+D22-D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="47" t="e">
+      <c r="E27" s="50" t="e">
         <f aca="false">+E22-E25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="47" t="e">
+      <c r="F27" s="50" t="e">
         <f aca="false">+F22-F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="48" t="e">
+      <c r="G27" s="50" t="e">
         <f aca="false">+G22-G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="49"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="s">
-        <v>0</v>
+      <c r="A28" s="59" t="s">
+        <v>31</v>
       </c>
-      <c r="B28" s="47" t="e">
+      <c r="B28" s="60" t="e">
         <f aca="false">+C25-B25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47" t="e">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61" t="e">
         <f aca="false">+E25-D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47" t="e">
+      <c r="E28" s="61"/>
+      <c r="F28" s="61" t="e">
         <f aca="false">+G25-F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="57"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -5949,8 +6012,8 @@
       <c r="R242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="58"/>
-      <c r="B243" s="58"/>
+      <c r="A243" s="63"/>
+      <c r="B243" s="63"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>

--- a/backend/src/assets/template.xlsx
+++ b/backend/src/assets/template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -96,6 +96,10 @@
     <t xml:space="preserve">After Service</t>
   </si>
   <si>
+    <t xml:space="preserve">After
+Service</t>
+  </si>
+  <si>
     <t xml:space="preserve">Before </t>
   </si>
   <si>
@@ -144,7 +148,7 @@
     <numFmt numFmtId="171" formatCode="0.000000"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +224,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
+      <sz val="13"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <charset val="1"/>
@@ -263,6 +267,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <charset val="1"/>
@@ -639,7 +650,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,71 +674,71 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,19 +750,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,9 +854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>617760</xdr:colOff>
+      <xdr:colOff>617040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>649440</xdr:rowOff>
+      <xdr:rowOff>648720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -859,7 +870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400" y="0"/>
-          <a:ext cx="3370680" cy="649440"/>
+          <a:ext cx="3369960" cy="648720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,7 +1069,7 @@
   <dimension ref="A1:R637"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1067,8 +1078,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.29"/>
@@ -1092,14 +1103,14 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="0"/>
       <c r="L1" s="8"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
@@ -1129,11 +1140,11 @@
       <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="0"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="18" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1173,7 @@
       <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1221,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -1436,22 +1447,22 @@
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
       <c r="B20" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="G20" s="43" t="s">
         <v>23</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>22</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -1462,7 +1473,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="45" t="n">
         <f aca="false">MIN(B7:B18)</f>
@@ -1497,7 +1508,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="49" t="n">
         <f aca="false">MAX(B7:B18)</f>
@@ -1532,7 +1543,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="52" t="n">
         <f aca="false">+B22-B21</f>
@@ -1567,7 +1578,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="54" t="e">
         <f aca="false">(1-(B21/B22))</f>
@@ -1602,7 +1613,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="57" t="e">
         <f aca="false">AVERAGE(B7:B18)</f>
@@ -1637,7 +1648,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="49" t="e">
         <f aca="false">B25-B21</f>
@@ -1672,7 +1683,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="49" t="e">
         <f aca="false">+B22-B25</f>
@@ -1707,7 +1718,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="60" t="e">
         <f aca="false">+C25-B25</f>
@@ -13914,7 +13925,7 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>

--- a/backend/src/assets/template.xlsx
+++ b/backend/src/assets/template.xlsx
@@ -137,16 +137,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -506,14 +505,14 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,10 +573,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -598,15 +593,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,7 +621,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,19 +629,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,11 +661,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,11 +689,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,31 +705,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,11 +737,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,15 +749,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,9 +849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>616680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>648720</xdr:rowOff>
+      <xdr:rowOff>648360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -870,7 +865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400" y="0"/>
-          <a:ext cx="3369960" cy="648720"/>
+          <a:ext cx="3369600" cy="648360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,7 +1064,7 @@
   <dimension ref="A1:R637"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1110,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="K1" s="0"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="8"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
@@ -1133,18 +1128,18 @@
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="15" t="e">
+      <c r="G2" s="13" t="e">
         <f aca="false">E2/10.45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" s="18" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" s="17" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="17"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="13" t="e">
         <f aca="false">E2+(E2*0.18)</f>
         <v>#DIV/0!</v>
@@ -1160,11 +1155,11 @@
       <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="e">
+      <c r="G3" s="13" t="e">
         <f aca="false">G$2+G$2*0.18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -1177,585 +1172,585 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="19"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="19"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="19" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="19"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="19"/>
-      <c r="O9" s="34" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="18"/>
+      <c r="O9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="19"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="19"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="19"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="19"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="19"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="19"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="19"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="19"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="19"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="19"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="45" t="n">
+      <c r="B21" s="44" t="n">
         <f aca="false">MIN(B7:B18)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="46" t="n">
+      <c r="C21" s="45" t="n">
         <f aca="false">MIN(C7:C18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46" t="n">
+      <c r="D21" s="45" t="n">
         <f aca="false">MIN(D7:D18)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="46" t="n">
+      <c r="E21" s="45" t="n">
         <f aca="false">MIN(E7:E18)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="46" t="n">
+      <c r="F21" s="45" t="n">
         <f aca="false">MIN(F7:F18)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="46" t="n">
+      <c r="G21" s="45" t="n">
         <f aca="false">MIN(G7:G18)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="19"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="49" t="n">
+      <c r="B22" s="48" t="n">
         <f aca="false">MAX(B7:B18)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="50" t="n">
+      <c r="C22" s="49" t="n">
         <f aca="false">MAX(C7:C18)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="50" t="n">
+      <c r="D22" s="49" t="n">
         <f aca="false">MAX(D7:D18)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="50" t="n">
+      <c r="E22" s="49" t="n">
         <f aca="false">MAX(E7:E18)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="50" t="n">
+      <c r="F22" s="49" t="n">
         <f aca="false">MAX(F7:F18)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="50" t="n">
+      <c r="G22" s="49" t="n">
         <f aca="false">MAX(G7:G18)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="19"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="52" t="n">
+      <c r="B23" s="51" t="n">
         <f aca="false">+B22-B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="53" t="n">
+      <c r="C23" s="52" t="n">
         <f aca="false">+C22-C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="53" t="n">
+      <c r="D23" s="52" t="n">
         <f aca="false">+D22-D21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="53" t="n">
+      <c r="E23" s="52" t="n">
         <f aca="false">+E22-E21</f>
         <v>0</v>
       </c>
-      <c r="F23" s="53" t="n">
+      <c r="F23" s="52" t="n">
         <f aca="false">+F22-F21</f>
         <v>0</v>
       </c>
-      <c r="G23" s="53" t="n">
+      <c r="G23" s="52" t="n">
         <f aca="false">+G22-G21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="54" t="e">
+      <c r="B24" s="53" t="e">
         <f aca="false">(1-(B21/B22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C24" s="55" t="e">
+      <c r="C24" s="54" t="e">
         <f aca="false">(1-(C21/C22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="55" t="e">
+      <c r="D24" s="54" t="e">
         <f aca="false">(1-(D21/D22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="55" t="e">
+      <c r="E24" s="54" t="e">
         <f aca="false">(1-(E21/E22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="55" t="e">
+      <c r="F24" s="54" t="e">
         <f aca="false">(1-(F21/F22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="55" t="e">
+      <c r="G24" s="54" t="e">
         <f aca="false">(1-(G21/G22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="56"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="57" t="e">
+      <c r="B25" s="56" t="e">
         <f aca="false">AVERAGE(B7:B18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="58" t="e">
+      <c r="C25" s="57" t="e">
         <f aca="false">AVERAGE(C7:C18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="58" t="e">
+      <c r="D25" s="57" t="e">
         <f aca="false">AVERAGE(D7:D18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="58" t="e">
+      <c r="E25" s="57" t="e">
         <f aca="false">AVERAGE(E7:F18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="58" t="e">
+      <c r="F25" s="57" t="e">
         <f aca="false">AVERAGE(F7:F18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="58" t="e">
+      <c r="G25" s="57" t="e">
         <f aca="false">AVERAGE(G7:G18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="19"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="49" t="e">
+      <c r="B26" s="48" t="e">
         <f aca="false">B25-B21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C26" s="50" t="e">
+      <c r="C26" s="49" t="e">
         <f aca="false">C25-C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="50" t="e">
+      <c r="D26" s="49" t="e">
         <f aca="false">D25-D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="50" t="e">
+      <c r="E26" s="49" t="e">
         <f aca="false">E25-E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="50" t="e">
+      <c r="F26" s="49" t="e">
         <f aca="false">F25-F21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="50" t="e">
+      <c r="G26" s="49" t="e">
         <f aca="false">G25-G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="19"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="49" t="e">
+      <c r="B27" s="48" t="e">
         <f aca="false">+B22-B25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="50" t="e">
+      <c r="C27" s="49" t="e">
         <f aca="false">+C22-C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="50" t="e">
+      <c r="D27" s="49" t="e">
         <f aca="false">+D22-D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="50" t="e">
+      <c r="E27" s="49" t="e">
         <f aca="false">+E22-E25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="50" t="e">
+      <c r="F27" s="49" t="e">
         <f aca="false">+F22-F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="50" t="e">
+      <c r="G27" s="49" t="e">
         <f aca="false">+G22-G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="19"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="60" t="e">
+      <c r="B28" s="59" t="e">
         <f aca="false">+C25-B25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61" t="e">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60" t="e">
         <f aca="false">+E25-D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61" t="e">
+      <c r="E28" s="60"/>
+      <c r="F28" s="60" t="e">
         <f aca="false">+G25-F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="19"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="24"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -6023,8 +6018,8 @@
       <c r="R242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="63"/>
-      <c r="B243" s="63"/>
+      <c r="A243" s="62"/>
+      <c r="B243" s="62"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>

--- a/backend/src/assets/template.xlsx
+++ b/backend/src/assets/template.xlsx
@@ -512,7 +512,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,11 +629,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,6 +667,10 @@
     </xf>
     <xf numFmtId="164" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -849,9 +861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>616680</xdr:colOff>
+      <xdr:colOff>615960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>648360</xdr:rowOff>
+      <xdr:rowOff>647640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -865,7 +877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400" y="0"/>
-          <a:ext cx="3369600" cy="648360"/>
+          <a:ext cx="3368880" cy="647640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,7 +1076,7 @@
   <dimension ref="A1:R637"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1242,8 +1254,8 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -1255,12 +1267,12 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="28"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -1274,29 +1286,29 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
       <c r="M9" s="18"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -1310,8 +1322,8 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -1321,12 +1333,12 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -1340,8 +1352,8 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -1351,12 +1363,12 @@
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -1370,8 +1382,8 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -1380,13 +1392,13 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -1395,102 +1407,102 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="35"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="35"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="35"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23"/>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="45" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="35"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="44" t="n">
+      <c r="B21" s="47" t="n">
         <f aca="false">MIN(B7:B18)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="45" t="n">
+      <c r="C21" s="48" t="n">
         <f aca="false">MIN(C7:C18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="45" t="n">
+      <c r="D21" s="48" t="n">
         <f aca="false">MIN(D7:D18)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="45" t="n">
+      <c r="E21" s="48" t="n">
         <f aca="false">MIN(E7:E18)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="45" t="n">
+      <c r="F21" s="48" t="n">
         <f aca="false">MIN(F7:F18)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="45" t="n">
+      <c r="G21" s="48" t="n">
         <f aca="false">MIN(G7:G18)</f>
         <v>0</v>
       </c>
@@ -1498,34 +1510,34 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="46"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="48" t="n">
+      <c r="B22" s="51" t="n">
         <f aca="false">MAX(B7:B18)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="49" t="n">
+      <c r="C22" s="52" t="n">
         <f aca="false">MAX(C7:C18)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="49" t="n">
+      <c r="D22" s="52" t="n">
         <f aca="false">MAX(D7:D18)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="49" t="n">
+      <c r="E22" s="52" t="n">
         <f aca="false">MAX(E7:E18)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="49" t="n">
+      <c r="F22" s="52" t="n">
         <f aca="false">MAX(F7:F18)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="49" t="n">
+      <c r="G22" s="52" t="n">
         <f aca="false">MAX(G7:G18)</f>
         <v>0</v>
       </c>
@@ -1533,34 +1545,34 @@
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="50"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="51" t="n">
+      <c r="B23" s="54" t="n">
         <f aca="false">+B22-B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="52" t="n">
+      <c r="C23" s="55" t="n">
         <f aca="false">+C22-C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="52" t="n">
+      <c r="D23" s="55" t="n">
         <f aca="false">+D22-D21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="52" t="n">
+      <c r="E23" s="55" t="n">
         <f aca="false">+E22-E21</f>
         <v>0</v>
       </c>
-      <c r="F23" s="52" t="n">
+      <c r="F23" s="55" t="n">
         <f aca="false">+F22-F21</f>
         <v>0</v>
       </c>
-      <c r="G23" s="52" t="n">
+      <c r="G23" s="55" t="n">
         <f aca="false">+G22-G21</f>
         <v>0</v>
       </c>
@@ -1568,34 +1580,34 @@
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="50"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="53" t="e">
+      <c r="B24" s="56" t="e">
         <f aca="false">(1-(B21/B22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C24" s="54" t="e">
+      <c r="C24" s="57" t="e">
         <f aca="false">(1-(C21/C22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="54" t="e">
+      <c r="D24" s="57" t="e">
         <f aca="false">(1-(D21/D22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="54" t="e">
+      <c r="E24" s="57" t="e">
         <f aca="false">(1-(E21/E22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="54" t="e">
+      <c r="F24" s="57" t="e">
         <f aca="false">(1-(F21/F22))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="54" t="e">
+      <c r="G24" s="57" t="e">
         <f aca="false">(1-(G21/G22))</f>
         <v>#DIV/0!</v>
       </c>
@@ -1603,34 +1615,34 @@
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="55"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="56" t="e">
+      <c r="B25" s="59" t="e">
         <f aca="false">AVERAGE(B7:B18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="57" t="e">
+      <c r="C25" s="60" t="e">
         <f aca="false">AVERAGE(C7:C18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="57" t="e">
+      <c r="D25" s="60" t="e">
         <f aca="false">AVERAGE(D7:D18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="57" t="e">
-        <f aca="false">AVERAGE(E7:F18)</f>
+      <c r="E25" s="60" t="e">
+        <f aca="false">AVERAGE(E7:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="57" t="e">
+      <c r="F25" s="60" t="e">
         <f aca="false">AVERAGE(F7:F18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="57" t="e">
+      <c r="G25" s="60" t="e">
         <f aca="false">AVERAGE(G7:G18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1638,34 +1650,34 @@
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="50"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="48" t="e">
+      <c r="B26" s="51" t="e">
         <f aca="false">B25-B21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C26" s="49" t="e">
+      <c r="C26" s="52" t="e">
         <f aca="false">C25-C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="49" t="e">
+      <c r="D26" s="52" t="e">
         <f aca="false">D25-D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="49" t="e">
+      <c r="E26" s="52" t="e">
         <f aca="false">E25-E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="52" t="e">
         <f aca="false">F25-F21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="49" t="e">
+      <c r="G26" s="52" t="e">
         <f aca="false">G25-G21</f>
         <v>#DIV/0!</v>
       </c>
@@ -1673,34 +1685,34 @@
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="50"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="48" t="e">
+      <c r="B27" s="51" t="e">
         <f aca="false">+B22-B25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="49" t="e">
+      <c r="C27" s="52" t="e">
         <f aca="false">+C22-C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="49" t="e">
+      <c r="D27" s="52" t="e">
         <f aca="false">+D22-D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="49" t="e">
+      <c r="E27" s="52" t="e">
         <f aca="false">+E22-E25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="52" t="e">
         <f aca="false">+F22-F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="49" t="e">
+      <c r="G27" s="52" t="e">
         <f aca="false">+G22-G25</f>
         <v>#DIV/0!</v>
       </c>
@@ -1708,33 +1720,33 @@
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="50"/>
+      <c r="L27" s="53"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="59" t="e">
+      <c r="B28" s="62" t="e">
         <f aca="false">+C25-B25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60" t="e">
+      <c r="C28" s="63"/>
+      <c r="D28" s="63" t="e">
         <f aca="false">+E25-D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60" t="e">
+      <c r="E28" s="63"/>
+      <c r="F28" s="63" t="e">
         <f aca="false">+G25-F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="61"/>
+      <c r="L28" s="64"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6018,8 +6030,8 @@
       <c r="R242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="62"/>
-      <c r="B243" s="62"/>
+      <c r="A243" s="65"/>
+      <c r="B243" s="65"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
